--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H2">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>137.3009511854222</v>
+        <v>0.01530675007288889</v>
       </c>
       <c r="R2">
-        <v>1235.7085606688</v>
+        <v>0.137760750656</v>
       </c>
       <c r="S2">
-        <v>0.7555825611895378</v>
+        <v>0.004731814489427865</v>
       </c>
       <c r="T2">
-        <v>0.7555825611895377</v>
+        <v>0.004731814489427866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>1.740815462775556</v>
+        <v>0.08469366286755554</v>
       </c>
       <c r="R3">
-        <v>15.66733916498</v>
+        <v>0.7622429658079999</v>
       </c>
       <c r="S3">
-        <v>0.009579903085638334</v>
+        <v>0.02618156690421369</v>
       </c>
       <c r="T3">
-        <v>0.009579903085638334</v>
+        <v>0.02618156690421369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H4">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>10.03251821615333</v>
+        <v>0.4880992464053333</v>
       </c>
       <c r="R4">
-        <v>90.29266394538001</v>
+        <v>4.392893217647999</v>
       </c>
       <c r="S4">
-        <v>0.05521007497395013</v>
+        <v>0.1508873585458419</v>
       </c>
       <c r="T4">
-        <v>0.05521007497395013</v>
+        <v>0.150887358545842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>28.27155815848889</v>
+        <v>0.06478299317555555</v>
       </c>
       <c r="R5">
-        <v>254.4440234264</v>
+        <v>0.5830469385799999</v>
       </c>
       <c r="S5">
-        <v>0.1555815610728124</v>
+        <v>0.0200265310609299</v>
       </c>
       <c r="T5">
-        <v>0.1555815610728124</v>
+        <v>0.0200265310609299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.256445</v>
       </c>
       <c r="I6">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J6">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>0.3584502887572222</v>
@@ -818,10 +818,10 @@
         <v>3.226052598815</v>
       </c>
       <c r="S6">
-        <v>0.00197259221367337</v>
+        <v>0.1108086472964089</v>
       </c>
       <c r="T6">
-        <v>0.001972592213673369</v>
+        <v>0.1108086472964089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.256445</v>
       </c>
       <c r="I7">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J7">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>2.065789929168333</v>
@@ -880,10 +880,10 @@
         <v>18.592109362515</v>
       </c>
       <c r="S7">
-        <v>0.01136827408757447</v>
+        <v>0.6386028825456632</v>
       </c>
       <c r="T7">
-        <v>0.01136827408757447</v>
+        <v>0.6386028825456633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H8">
         <v>0.206369</v>
       </c>
       <c r="I8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>1.791638791875555</v>
+        <v>0.004105459026222222</v>
       </c>
       <c r="R8">
-        <v>16.12474912688</v>
+        <v>0.03694913123599999</v>
       </c>
       <c r="S8">
-        <v>0.009859589576066915</v>
+        <v>0.001269130965980707</v>
       </c>
       <c r="T8">
-        <v>0.009859589576066913</v>
+        <v>0.001269130965980707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H9">
         <v>0.206369</v>
       </c>
       <c r="I9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
-        <v>0.02271588423588888</v>
+        <v>0.02271588423588889</v>
       </c>
       <c r="R9">
         <v>0.204442958123</v>
       </c>
       <c r="S9">
-        <v>0.000125008063254119</v>
+        <v>0.00702221893319636</v>
       </c>
       <c r="T9">
-        <v>0.000125008063254119</v>
+        <v>0.00702221893319636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H10">
         <v>0.206369</v>
       </c>
       <c r="I10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>0.1309142337403333</v>
@@ -1066,10 +1066,10 @@
         <v>1.178228103663</v>
       </c>
       <c r="S10">
-        <v>0.0007204357374924668</v>
+        <v>0.04046984925833723</v>
       </c>
       <c r="T10">
-        <v>0.0007204357374924668</v>
+        <v>0.04046984925833724</v>
       </c>
     </row>
   </sheetData>
